--- a/doc/クラス構成図/クラス構成図_新規登録_F2_fireworks.xlsx
+++ b/doc/クラス構成図/クラス構成図_新規登録_F2_fireworks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\クラス構成図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3130BEF6-01C7-4D0C-AAE5-41F0D7993394}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC5F720-CC78-4C32-82AD-1263D142BB99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,18 +84,21 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ログインクラス</t>
+    <t>memoly</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>山下</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマシタ</t>
+    <t>辻</t>
+    <rPh sb="0" eb="1">
+      <t>ツジ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>memoly</t>
+    <t>新規登録クラス</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -566,21 +569,21 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>7470</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>151466</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E514E020-A9B2-4DEE-951C-E8064F044552}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D712662E-32DB-48F3-B5CD-42D687FC80EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -602,7 +605,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="1172882"/>
+          <a:off x="762000" y="1333500"/>
           <a:ext cx="5724525" cy="3057525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -938,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF14" sqref="AF14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -966,7 +969,7 @@
       <c r="L1" s="21"/>
       <c r="M1" s="21"/>
       <c r="N1" s="21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O1" s="21"/>
       <c r="P1" s="21"/>
@@ -1020,7 +1023,7 @@
       <c r="L2" s="30"/>
       <c r="M2" s="30"/>
       <c r="N2" s="30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O2" s="30"/>
       <c r="P2" s="30"/>

--- a/doc/クラス構成図/クラス構成図_新規登録_F2_fireworks.xlsx
+++ b/doc/クラス構成図/クラス構成図_新規登録_F2_fireworks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\クラス構成図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC5F720-CC78-4C32-82AD-1263D142BB99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E2ADB7-1E53-4D72-8DF8-FB0316B27747}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -154,6 +154,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -437,7 +444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -501,15 +508,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -530,9 +528,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -542,7 +537,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -941,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF1" activeCellId="2" sqref="K1:M3 W1:X2 AF1:AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -963,11 +976,11 @@
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
       <c r="J1" s="14"/>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
       <c r="N1" s="21" t="s">
         <v>10</v>
       </c>
@@ -979,10 +992,10 @@
       <c r="T1" s="21"/>
       <c r="U1" s="21"/>
       <c r="V1" s="21"/>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="21"/>
+      <c r="X1" s="32"/>
       <c r="Y1" s="21" t="s">
         <v>9</v>
       </c>
@@ -992,19 +1005,19 @@
       <c r="AC1" s="21"/>
       <c r="AD1" s="21"/>
       <c r="AE1" s="21"/>
-      <c r="AF1" s="36" t="s">
+      <c r="AF1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="28" t="s">
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="29"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="26"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
@@ -1017,48 +1030,48 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="17"/>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30" t="s">
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="31">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="28">
         <v>45089</v>
       </c>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="32" t="s">
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="33">
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="29">
         <v>45089</v>
       </c>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="35"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="31"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
@@ -1071,38 +1084,38 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="20"/>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="27"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="24"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
